--- a/Hardware/Top/Winston-TOP-BOM.xlsx
+++ b/Hardware/Top/Winston-TOP-BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINOD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINOD\Documents\Winston\Hardware\Top\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -601,7 +601,7 @@
     <t>RMCF0603FT10K0CT-ND</t>
   </si>
   <si>
-    <t>Design Name -- Revision Code / Designer</t>
+    <t>Winston Smartwatch -- Revision Code / Vinod Rangaprasad</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
